--- a/config/excel/PlayerLevelup.xlsx
+++ b/config/excel/PlayerLevelup.xlsx
@@ -19,7 +19,7 @@
     <t>行列头两行不会被读取</t>
   </si>
   <si>
-    <t>等级</t>
+    <t>账号等级</t>
   </si>
   <si>
     <t>升到此级所需经验值</t>
@@ -37,7 +37,7 @@
     <t>导出字段描述</t>
   </si>
   <si>
-    <t>经验</t>
+    <t>账号经验</t>
   </si>
   <si>
     <t>字段控制</t>
@@ -54,10 +54,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -77,6 +77,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -90,6 +104,76 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,10 +195,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -127,85 +212,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,13 +224,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -246,25 +246,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,43 +384,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,109 +414,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,6 +455,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -475,36 +490,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,6 +520,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -555,148 +555,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1910,7 +1910,7 @@
   <dimension ref="A1:D106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelCol="3"/>

--- a/config/excel/PlayerLevelup.xlsx
+++ b/config/excel/PlayerLevelup.xlsx
@@ -22,7 +22,7 @@
     <t>账号等级</t>
   </si>
   <si>
-    <t>升到此级所需经验值</t>
+    <t>升到此级所需累计经验值</t>
   </si>
   <si>
     <t>导出字段名</t>
@@ -55,9 +55,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -82,6 +82,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -95,29 +140,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -132,16 +164,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,27 +188,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -197,17 +205,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -219,7 +219,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,24 +246,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -276,157 +396,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,6 +455,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -466,15 +475,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,6 +494,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -505,17 +514,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,9 +535,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,10 +558,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -570,133 +570,133 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1092,7 +1092,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1658,7 +1658,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1910,7 +1910,7 @@
   <dimension ref="A1:D106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelCol="3"/>
@@ -1918,7 +1918,7 @@
     <col min="1" max="1" width="14.35" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.35" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.35" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.3083333333333" style="1" customWidth="1"/>
     <col min="5" max="16382" width="6" style="1" customWidth="1"/>
     <col min="16383" max="16384" width="6" style="1"/>
   </cols>
@@ -2002,7 +2002,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>624</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:4">
@@ -2012,7 +2012,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>847</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:4">
@@ -2022,7 +2022,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="1">
-        <v>1278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" ht="16.15" customHeight="1" spans="1:4">
@@ -2032,7 +2032,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="1">
-        <v>1945</v>
+        <v>471</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="3:4">
@@ -2040,7 +2040,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="1">
-        <v>2869</v>
+        <v>758</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:4">
@@ -2048,7 +2048,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="1">
-        <v>4068</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="3:4">
@@ -2056,7 +2056,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="1">
-        <v>5557</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="3:4">
@@ -2064,7 +2064,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="1">
-        <v>7351</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="3:4">
@@ -2072,7 +2072,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="1">
-        <v>9462</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="3:4">
@@ -2080,7 +2080,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="1">
-        <v>11901</v>
+        <v>4595</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:4">
@@ -2088,7 +2088,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="1">
-        <v>14678</v>
+        <v>6063</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="3:4">
@@ -2096,7 +2096,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="1">
-        <v>17805</v>
+        <v>7844</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:4">
@@ -2104,7 +2104,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="1">
-        <v>21289</v>
+        <v>9973</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="3:4">
@@ -2112,7 +2112,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="1">
-        <v>25140</v>
+        <v>12488</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="3:4">
@@ -2120,7 +2120,7 @@
         <v>16</v>
       </c>
       <c r="D22" s="1">
-        <v>29365</v>
+        <v>15425</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="3:4">
@@ -2128,7 +2128,7 @@
         <v>17</v>
       </c>
       <c r="D23" s="1">
-        <v>33973</v>
+        <v>18823</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="3:4">
@@ -2136,7 +2136,7 @@
         <v>18</v>
       </c>
       <c r="D24" s="1">
-        <v>38972</v>
+        <v>22721</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="3:4">
@@ -2144,7 +2144,7 @@
         <v>19</v>
       </c>
       <c r="D25" s="1">
-        <v>44368</v>
+        <v>27158</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="3:4">
@@ -2152,7 +2152,7 @@
         <v>20</v>
       </c>
       <c r="D26" s="1">
-        <v>50167</v>
+        <v>32175</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:4">
@@ -2160,7 +2160,7 @@
         <v>21</v>
       </c>
       <c r="D27" s="1">
-        <v>56378</v>
+        <v>37813</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="3:4">
@@ -2168,7 +2168,7 @@
         <v>22</v>
       </c>
       <c r="D28" s="1">
-        <v>63006</v>
+        <v>44114</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:4">
@@ -2176,7 +2176,7 @@
         <v>23</v>
       </c>
       <c r="D29" s="1">
-        <v>70057</v>
+        <v>51120</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="3:4">
@@ -2184,7 +2184,7 @@
         <v>24</v>
       </c>
       <c r="D30" s="1">
-        <v>77538</v>
+        <v>58874</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:4">
@@ -2192,7 +2192,7 @@
         <v>25</v>
       </c>
       <c r="D31" s="1">
-        <v>85453</v>
+        <v>67420</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="3:4">
@@ -2200,7 +2200,7 @@
         <v>26</v>
       </c>
       <c r="D32" s="1">
-        <v>93809</v>
+        <v>76801</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="3:4">
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D33" s="1">
-        <v>102611</v>
+        <v>87063</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="3:4">
@@ -2216,7 +2216,7 @@
         <v>28</v>
       </c>
       <c r="D34" s="1">
-        <v>111865</v>
+        <v>98250</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="3:4">
@@ -2224,7 +2224,7 @@
         <v>29</v>
       </c>
       <c r="D35" s="1">
-        <v>121575</v>
+        <v>110408</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="3:4">
@@ -2232,7 +2232,7 @@
         <v>30</v>
       </c>
       <c r="D36" s="1">
-        <v>131746</v>
+        <v>123583</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:4">
@@ -2240,7 +2240,7 @@
         <v>31</v>
       </c>
       <c r="D37" s="1">
-        <v>142384</v>
+        <v>137822</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="3:4">
@@ -2248,7 +2248,7 @@
         <v>32</v>
       </c>
       <c r="D38" s="1">
-        <v>153493</v>
+        <v>153172</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="3:4">
@@ -2256,7 +2256,7 @@
         <v>33</v>
       </c>
       <c r="D39" s="1">
-        <v>165078</v>
+        <v>169680</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="3:4">
@@ -2264,7 +2264,7 @@
         <v>34</v>
       </c>
       <c r="D40" s="1">
-        <v>177143</v>
+        <v>187395</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="3:4">
@@ -2272,7 +2272,7 @@
         <v>35</v>
       </c>
       <c r="D41" s="1">
-        <v>189693</v>
+        <v>206365</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="3:4">
@@ -2280,7 +2280,7 @@
         <v>36</v>
       </c>
       <c r="D42" s="1">
-        <v>202732</v>
+        <v>226639</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="3:4">
@@ -2288,7 +2288,7 @@
         <v>37</v>
       </c>
       <c r="D43" s="1">
-        <v>216264</v>
+        <v>248266</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="3:4">
@@ -2296,7 +2296,7 @@
         <v>38</v>
       </c>
       <c r="D44" s="1">
-        <v>230295</v>
+        <v>271296</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="3:4">
@@ -2304,7 +2304,7 @@
         <v>39</v>
       </c>
       <c r="D45" s="1">
-        <v>244827</v>
+        <v>295779</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="3:4">
@@ -2312,7 +2312,7 @@
         <v>40</v>
       </c>
       <c r="D46" s="1">
-        <v>259864</v>
+        <v>321766</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="3:4">
@@ -2320,7 +2320,7 @@
         <v>41</v>
       </c>
       <c r="D47" s="1">
-        <v>275412</v>
+        <v>349308</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="3:4">
@@ -2328,7 +2328,7 @@
         <v>42</v>
       </c>
       <c r="D48" s="1">
-        <v>291473</v>
+        <v>378456</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="3:4">
@@ -2336,7 +2336,7 @@
         <v>43</v>
       </c>
       <c r="D49" s="1">
-        <v>308051</v>
+        <v>409262</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="3:4">
@@ -2344,7 +2344,7 @@
         <v>44</v>
       </c>
       <c r="D50" s="1">
-        <v>325151</v>
+        <v>441778</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="3:4">
@@ -2352,7 +2352,7 @@
         <v>45</v>
       </c>
       <c r="D51" s="1">
-        <v>342775</v>
+        <v>476056</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="3:4">
@@ -2360,7 +2360,7 @@
         <v>46</v>
       </c>
       <c r="D52" s="1">
-        <v>360928</v>
+        <v>512149</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="3:4">
@@ -2368,7 +2368,7 @@
         <v>47</v>
       </c>
       <c r="D53" s="1">
-        <v>379613</v>
+        <v>550111</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="3:4">
@@ -2376,7 +2376,7 @@
         <v>48</v>
       </c>
       <c r="D54" s="1">
-        <v>398834</v>
+        <v>589995</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="3:4">
@@ -2384,7 +2384,7 @@
         <v>49</v>
       </c>
       <c r="D55" s="1">
-        <v>418593</v>
+        <v>631855</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="3:4">
@@ -2392,7 +2392,7 @@
         <v>50</v>
       </c>
       <c r="D56" s="1">
-        <v>438896</v>
+        <v>675745</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="3:4">
@@ -2400,7 +2400,7 @@
         <v>51</v>
       </c>
       <c r="D57" s="1">
-        <v>459744</v>
+        <v>721720</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="3:4">
@@ -2408,7 +2408,7 @@
         <v>52</v>
       </c>
       <c r="D58" s="1">
-        <v>481141</v>
+        <v>769835</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="3:4">
@@ -2416,7 +2416,7 @@
         <v>53</v>
       </c>
       <c r="D59" s="1">
-        <v>503091</v>
+        <v>820145</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="3:4">
@@ -2424,7 +2424,7 @@
         <v>54</v>
       </c>
       <c r="D60" s="1">
-        <v>525596</v>
+        <v>872705</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="3:4">
@@ -2432,7 +2432,7 @@
         <v>55</v>
       </c>
       <c r="D61" s="1">
-        <v>548660</v>
+        <v>927572</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="3:4">
@@ -2440,7 +2440,7 @@
         <v>56</v>
       </c>
       <c r="D62" s="1">
-        <v>572286</v>
+        <v>984801</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="3:4">
@@ -2448,7 +2448,7 @@
         <v>57</v>
       </c>
       <c r="D63" s="1">
-        <v>596478</v>
+        <v>1044449</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="3:4">
@@ -2456,7 +2456,7 @@
         <v>58</v>
       </c>
       <c r="D64" s="1">
-        <v>621237</v>
+        <v>1106573</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="3:4">
@@ -2464,7 +2464,7 @@
         <v>59</v>
       </c>
       <c r="D65" s="1">
-        <v>646568</v>
+        <v>1171230</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="3:4">
@@ -2472,7 +2472,7 @@
         <v>60</v>
       </c>
       <c r="D66" s="1">
-        <v>672473</v>
+        <v>1238478</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="3:4">
@@ -2480,7 +2480,7 @@
         <v>61</v>
       </c>
       <c r="D67" s="1">
-        <v>698955</v>
+        <v>1308374</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="3:4">
@@ -2488,7 +2488,7 @@
         <v>62</v>
       </c>
       <c r="D68" s="1">
-        <v>726017</v>
+        <v>1380976</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="3:4">
@@ -2496,7 +2496,7 @@
         <v>63</v>
       </c>
       <c r="D69" s="1">
-        <v>753662</v>
+        <v>1456343</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="3:4">
@@ -2504,7 +2504,7 @@
         <v>64</v>
       </c>
       <c r="D70" s="1">
-        <v>781892</v>
+        <v>1534533</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="3:4">
@@ -2512,7 +2512,7 @@
         <v>65</v>
       </c>
       <c r="D71" s="1">
-        <v>810712</v>
+        <v>1615605</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="3:4">
@@ -2520,7 +2520,7 @@
         <v>66</v>
       </c>
       <c r="D72" s="1">
-        <v>840122</v>
+        <v>1699618</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="3:4">
@@ -2528,7 +2528,7 @@
         <v>67</v>
       </c>
       <c r="D73" s="1">
-        <v>870127</v>
+        <v>1786631</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="3:4">
@@ -2536,7 +2536,7 @@
         <v>68</v>
       </c>
       <c r="D74" s="1">
-        <v>900729</v>
+        <v>1876704</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="3:4">
@@ -2544,7 +2544,7 @@
         <v>69</v>
       </c>
       <c r="D75" s="1">
-        <v>931930</v>
+        <v>1969898</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="3:4">
@@ -2552,7 +2552,7 @@
         <v>70</v>
       </c>
       <c r="D76" s="1">
-        <v>963734</v>
+        <v>2066272</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="3:4">
@@ -2560,7 +2560,7 @@
         <v>71</v>
       </c>
       <c r="D77" s="1">
-        <v>996142</v>
+        <v>2165887</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="3:4">
@@ -2568,7 +2568,7 @@
         <v>72</v>
       </c>
       <c r="D78" s="1">
-        <v>1029158</v>
+        <v>2268803</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="3:4">
@@ -2576,7 +2576,7 @@
         <v>73</v>
       </c>
       <c r="D79" s="1">
-        <v>1062784</v>
+        <v>2375082</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="3:4">
@@ -2584,7 +2584,7 @@
         <v>74</v>
       </c>
       <c r="D80" s="1">
-        <v>1097023</v>
+        <v>2484785</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="3:4">
@@ -2592,7 +2592,7 @@
         <v>75</v>
       </c>
       <c r="D81" s="1">
-        <v>1131877</v>
+        <v>2597973</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="3:4">
@@ -2600,7 +2600,7 @@
         <v>76</v>
       </c>
       <c r="D82" s="1">
-        <v>1167348</v>
+        <v>2714708</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="3:4">
@@ -2608,7 +2608,7 @@
         <v>77</v>
       </c>
       <c r="D83" s="1">
-        <v>1203440</v>
+        <v>2835053</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="3:4">
@@ -2616,7 +2616,7 @@
         <v>78</v>
       </c>
       <c r="D84" s="1">
-        <v>1240154</v>
+        <v>2959069</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="3:4">
@@ -2624,7 +2624,7 @@
         <v>79</v>
       </c>
       <c r="D85" s="1">
-        <v>1277494</v>
+        <v>3086819</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="3:4">
@@ -2632,7 +2632,7 @@
         <v>80</v>
       </c>
       <c r="D86" s="1">
-        <v>1315461</v>
+        <v>3218366</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="3:4">
@@ -2640,7 +2640,7 @@
         <v>81</v>
       </c>
       <c r="D87" s="1">
-        <v>1354058</v>
+        <v>3353772</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="3:4">
@@ -2648,7 +2648,7 @@
         <v>82</v>
       </c>
       <c r="D88" s="1">
-        <v>1393288</v>
+        <v>3493101</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="3:4">
@@ -2656,7 +2656,7 @@
         <v>83</v>
       </c>
       <c r="D89" s="1">
-        <v>1433152</v>
+        <v>3636417</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="3:4">
@@ -2664,7 +2664,7 @@
         <v>84</v>
       </c>
       <c r="D90" s="1">
-        <v>1473653</v>
+        <v>3783783</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="3:4">
@@ -2672,7 +2672,7 @@
         <v>85</v>
       </c>
       <c r="D91" s="1">
-        <v>1514793</v>
+        <v>3935263</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="3:4">
@@ -2680,7 +2680,7 @@
         <v>86</v>
       </c>
       <c r="D92" s="1">
-        <v>1556576</v>
+        <v>4090921</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="3:4">
@@ -2688,7 +2688,7 @@
         <v>87</v>
       </c>
       <c r="D93" s="1">
-        <v>1599002</v>
+        <v>4250822</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="3:4">
@@ -2696,7 +2696,7 @@
         <v>88</v>
       </c>
       <c r="D94" s="1">
-        <v>1642074</v>
+        <v>4415030</v>
       </c>
     </row>
     <row r="95" customHeight="1" spans="3:4">
@@ -2704,7 +2704,7 @@
         <v>89</v>
       </c>
       <c r="D95" s="1">
-        <v>1685795</v>
+        <v>4583610</v>
       </c>
     </row>
     <row r="96" customHeight="1" spans="3:4">
@@ -2712,7 +2712,7 @@
         <v>90</v>
       </c>
       <c r="D96" s="1">
-        <v>1730166</v>
+        <v>4756627</v>
       </c>
     </row>
     <row r="97" customHeight="1" spans="3:4">
@@ -2720,7 +2720,7 @@
         <v>91</v>
       </c>
       <c r="D97" s="1">
-        <v>1775191</v>
+        <v>4934147</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="3:4">
@@ -2728,7 +2728,7 @@
         <v>92</v>
       </c>
       <c r="D98" s="1">
-        <v>1820870</v>
+        <v>5116235</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="3:4">
@@ -2736,7 +2736,7 @@
         <v>93</v>
       </c>
       <c r="D99" s="1">
-        <v>1867207</v>
+        <v>5302956</v>
       </c>
     </row>
     <row r="100" customHeight="1" spans="3:4">
@@ -2744,7 +2744,7 @@
         <v>94</v>
       </c>
       <c r="D100" s="1">
-        <v>1914203</v>
+        <v>5494377</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="3:4">
@@ -2752,7 +2752,7 @@
         <v>95</v>
       </c>
       <c r="D101" s="1">
-        <v>1961860</v>
+        <v>5690564</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="3:4">
@@ -2760,7 +2760,7 @@
         <v>96</v>
       </c>
       <c r="D102" s="1">
-        <v>2010181</v>
+        <v>5891583</v>
       </c>
     </row>
     <row r="103" customHeight="1" spans="3:4">
@@ -2768,7 +2768,7 @@
         <v>97</v>
       </c>
       <c r="D103" s="1">
-        <v>2059168</v>
+        <v>6097500</v>
       </c>
     </row>
     <row r="104" customHeight="1" spans="3:4">
@@ -2776,7 +2776,7 @@
         <v>98</v>
       </c>
       <c r="D104" s="1">
-        <v>2108823</v>
+        <v>6308383</v>
       </c>
     </row>
     <row r="105" customHeight="1" spans="3:4">
@@ -2784,7 +2784,7 @@
         <v>99</v>
       </c>
       <c r="D105" s="1">
-        <v>2159148</v>
+        <v>6524298</v>
       </c>
     </row>
     <row r="106" customHeight="1" spans="3:4">
@@ -2792,11 +2792,11 @@
         <v>100</v>
       </c>
       <c r="D106" s="1">
-        <v>2210145</v>
+        <v>6745313</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>

--- a/config/excel/PlayerLevelup.xlsx
+++ b/config/excel/PlayerLevelup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerLevelup" sheetId="1" r:id="rId1"/>
@@ -54,10 +54,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -81,41 +81,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -127,7 +105,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,7 +120,67 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,38 +194,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
@@ -197,9 +203,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -211,15 +217,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,19 +246,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,163 +426,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,11 +455,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,17 +485,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,6 +499,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,21 +542,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -543,25 +552,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -570,133 +570,133 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1910,7 +1910,7 @@
   <dimension ref="A1:D106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107"/>
+      <selection activeCell="G106" sqref="G106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelCol="3"/>
@@ -2002,7 +2002,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>63</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:4">
@@ -2012,7 +2012,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>148</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:4">
@@ -2022,7 +2022,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="1">
-        <v>276</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" ht="16.15" customHeight="1" spans="1:4">
@@ -2032,7 +2032,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="1">
-        <v>471</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="3:4">
@@ -2040,7 +2040,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="1">
-        <v>758</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:4">
@@ -2048,7 +2048,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="1">
-        <v>1165</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="3:4">
@@ -2056,7 +2056,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="1">
-        <v>1721</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="3:4">
@@ -2064,7 +2064,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="1">
-        <v>2457</v>
+        <v>563</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="3:4">
@@ -2072,7 +2072,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="1">
-        <v>3404</v>
+        <v>794</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="3:4">
@@ -2080,7 +2080,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="1">
-        <v>4595</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:4">
@@ -2088,7 +2088,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="1">
-        <v>6063</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="3:4">
@@ -2096,7 +2096,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="1">
-        <v>7844</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:4">
@@ -2104,7 +2104,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="1">
-        <v>9973</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="3:4">
@@ -2112,7 +2112,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="1">
-        <v>12488</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="3:4">
@@ -2120,7 +2120,7 @@
         <v>16</v>
       </c>
       <c r="D22" s="1">
-        <v>15425</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="3:4">
@@ -2128,7 +2128,7 @@
         <v>17</v>
       </c>
       <c r="D23" s="1">
-        <v>18823</v>
+        <v>5484</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="3:4">
@@ -2136,7 +2136,7 @@
         <v>18</v>
       </c>
       <c r="D24" s="1">
-        <v>22721</v>
+        <v>6663</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="3:4">
@@ -2144,7 +2144,7 @@
         <v>19</v>
       </c>
       <c r="D25" s="1">
-        <v>27158</v>
+        <v>7997</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="3:4">
@@ -2152,7 +2152,7 @@
         <v>20</v>
       </c>
       <c r="D26" s="1">
-        <v>32175</v>
+        <v>9497</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:4">
@@ -2160,7 +2160,7 @@
         <v>21</v>
       </c>
       <c r="D27" s="1">
-        <v>37813</v>
+        <v>11174</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="3:4">
@@ -2168,7 +2168,7 @@
         <v>22</v>
       </c>
       <c r="D28" s="1">
-        <v>44114</v>
+        <v>13038</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:4">
@@ -2176,7 +2176,7 @@
         <v>23</v>
       </c>
       <c r="D29" s="1">
-        <v>51120</v>
+        <v>15101</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="3:4">
@@ -2184,7 +2184,7 @@
         <v>24</v>
       </c>
       <c r="D30" s="1">
-        <v>58874</v>
+        <v>17373</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:4">
@@ -2192,7 +2192,7 @@
         <v>25</v>
       </c>
       <c r="D31" s="1">
-        <v>67420</v>
+        <v>19866</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="3:4">
@@ -2200,7 +2200,7 @@
         <v>26</v>
       </c>
       <c r="D32" s="1">
-        <v>76801</v>
+        <v>23273</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="3:4">
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D33" s="1">
-        <v>87063</v>
+        <v>26984</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="3:4">
@@ -2216,7 +2216,7 @@
         <v>28</v>
       </c>
       <c r="D34" s="1">
-        <v>98250</v>
+        <v>31014</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="3:4">
@@ -2224,7 +2224,7 @@
         <v>29</v>
       </c>
       <c r="D35" s="1">
-        <v>110408</v>
+        <v>35378</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="3:4">
@@ -2232,7 +2232,7 @@
         <v>30</v>
       </c>
       <c r="D36" s="1">
-        <v>123583</v>
+        <v>40090</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:4">
@@ -2240,7 +2240,7 @@
         <v>31</v>
       </c>
       <c r="D37" s="1">
-        <v>137822</v>
+        <v>45164</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="3:4">
@@ -2248,7 +2248,7 @@
         <v>32</v>
       </c>
       <c r="D38" s="1">
-        <v>153172</v>
+        <v>51706</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="3:4">
@@ -2256,7 +2256,7 @@
         <v>33</v>
       </c>
       <c r="D39" s="1">
-        <v>169680</v>
+        <v>58719</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="3:4">
@@ -2264,7 +2264,7 @@
         <v>34</v>
       </c>
       <c r="D40" s="1">
-        <v>187395</v>
+        <v>66221</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="3:4">
@@ -2272,7 +2272,7 @@
         <v>35</v>
       </c>
       <c r="D41" s="1">
-        <v>206365</v>
+        <v>74230</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="3:4">
@@ -2280,7 +2280,7 @@
         <v>36</v>
       </c>
       <c r="D42" s="1">
-        <v>226639</v>
+        <v>82764</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="3:4">
@@ -2288,7 +2288,7 @@
         <v>37</v>
       </c>
       <c r="D43" s="1">
-        <v>248266</v>
+        <v>91842</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="3:4">
@@ -2296,7 +2296,7 @@
         <v>38</v>
       </c>
       <c r="D44" s="1">
-        <v>271296</v>
+        <v>101482</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="3:4">
@@ -2304,7 +2304,7 @@
         <v>39</v>
       </c>
       <c r="D45" s="1">
-        <v>295779</v>
+        <v>111702</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="3:4">
@@ -2312,7 +2312,7 @@
         <v>40</v>
       </c>
       <c r="D46" s="1">
-        <v>321766</v>
+        <v>122521</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="3:4">
@@ -2320,7 +2320,7 @@
         <v>41</v>
       </c>
       <c r="D47" s="1">
-        <v>349308</v>
+        <v>133958</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="3:4">
@@ -2328,7 +2328,7 @@
         <v>42</v>
       </c>
       <c r="D48" s="1">
-        <v>378456</v>
+        <v>148044</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="3:4">
@@ -2336,7 +2336,7 @@
         <v>43</v>
       </c>
       <c r="D49" s="1">
-        <v>409262</v>
+        <v>162895</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="3:4">
@@ -2344,7 +2344,7 @@
         <v>44</v>
       </c>
       <c r="D50" s="1">
-        <v>441778</v>
+        <v>178533</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="3:4">
@@ -2352,7 +2352,7 @@
         <v>45</v>
       </c>
       <c r="D51" s="1">
-        <v>476056</v>
+        <v>194980</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="3:4">
@@ -2360,7 +2360,7 @@
         <v>46</v>
       </c>
       <c r="D52" s="1">
-        <v>512149</v>
+        <v>212258</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="3:4">
@@ -2368,7 +2368,7 @@
         <v>47</v>
       </c>
       <c r="D53" s="1">
-        <v>550111</v>
+        <v>232981</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="3:4">
@@ -2376,7 +2376,7 @@
         <v>48</v>
       </c>
       <c r="D54" s="1">
-        <v>589995</v>
+        <v>254706</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="3:4">
@@ -2384,7 +2384,7 @@
         <v>49</v>
       </c>
       <c r="D55" s="1">
-        <v>631855</v>
+        <v>277458</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="3:4">
@@ -2392,7 +2392,7 @@
         <v>50</v>
       </c>
       <c r="D56" s="1">
-        <v>675745</v>
+        <v>304240</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="3:4">
@@ -2400,7 +2400,7 @@
         <v>51</v>
       </c>
       <c r="D57" s="1">
-        <v>721720</v>
+        <v>332237</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="3:4">
@@ -2408,7 +2408,7 @@
         <v>52</v>
       </c>
       <c r="D58" s="1">
-        <v>769835</v>
+        <v>364727</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="3:4">
@@ -2416,7 +2416,7 @@
         <v>53</v>
       </c>
       <c r="D59" s="1">
-        <v>820145</v>
+        <v>398633</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="3:4">
@@ -2424,7 +2424,7 @@
         <v>54</v>
       </c>
       <c r="D60" s="1">
-        <v>872705</v>
+        <v>433988</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="3:4">
@@ -2432,7 +2432,7 @@
         <v>55</v>
       </c>
       <c r="D61" s="1">
-        <v>927572</v>
+        <v>470825</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="3:4">
@@ -2440,7 +2440,7 @@
         <v>56</v>
       </c>
       <c r="D62" s="1">
-        <v>984801</v>
+        <v>509177</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="3:4">
@@ -2448,7 +2448,7 @@
         <v>57</v>
       </c>
       <c r="D63" s="1">
-        <v>1044449</v>
+        <v>549077</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="3:4">
@@ -2456,7 +2456,7 @@
         <v>58</v>
       </c>
       <c r="D64" s="1">
-        <v>1106573</v>
+        <v>590559</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="3:4">
@@ -2464,7 +2464,7 @@
         <v>59</v>
       </c>
       <c r="D65" s="1">
-        <v>1171230</v>
+        <v>633657</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="3:4">
@@ -2472,7 +2472,7 @@
         <v>60</v>
       </c>
       <c r="D66" s="1">
-        <v>1238478</v>
+        <v>678405</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="3:4">
@@ -2480,7 +2480,7 @@
         <v>61</v>
       </c>
       <c r="D67" s="1">
-        <v>1308374</v>
+        <v>724836</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="3:4">
@@ -2488,7 +2488,7 @@
         <v>62</v>
       </c>
       <c r="D68" s="1">
-        <v>1380976</v>
+        <v>772984</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="3:4">
@@ -2496,7 +2496,7 @@
         <v>63</v>
       </c>
       <c r="D69" s="1">
-        <v>1456343</v>
+        <v>822884</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="3:4">
@@ -2504,7 +2504,7 @@
         <v>64</v>
       </c>
       <c r="D70" s="1">
-        <v>1534533</v>
+        <v>874570</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="3:4">
@@ -2512,7 +2512,7 @@
         <v>65</v>
       </c>
       <c r="D71" s="1">
-        <v>1615605</v>
+        <v>928076</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="3:4">
@@ -2520,7 +2520,7 @@
         <v>66</v>
       </c>
       <c r="D72" s="1">
-        <v>1699618</v>
+        <v>983436</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="3:4">
@@ -2528,7 +2528,7 @@
         <v>67</v>
       </c>
       <c r="D73" s="1">
-        <v>1786631</v>
+        <v>1040686</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="3:4">
@@ -2536,7 +2536,7 @@
         <v>68</v>
       </c>
       <c r="D74" s="1">
-        <v>1876704</v>
+        <v>1099859</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="3:4">
@@ -2544,7 +2544,7 @@
         <v>69</v>
       </c>
       <c r="D75" s="1">
-        <v>1969898</v>
+        <v>1160991</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="3:4">
@@ -2552,7 +2552,7 @@
         <v>70</v>
       </c>
       <c r="D76" s="1">
-        <v>2066272</v>
+        <v>1224116</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="3:4">
@@ -2560,7 +2560,7 @@
         <v>71</v>
       </c>
       <c r="D77" s="1">
-        <v>2165887</v>
+        <v>1289270</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="3:4">
@@ -2568,7 +2568,7 @@
         <v>72</v>
       </c>
       <c r="D78" s="1">
-        <v>2268803</v>
+        <v>1356487</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="3:4">
@@ -2576,7 +2576,7 @@
         <v>73</v>
       </c>
       <c r="D79" s="1">
-        <v>2375082</v>
+        <v>1425803</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="3:4">
@@ -2584,7 +2584,7 @@
         <v>74</v>
       </c>
       <c r="D80" s="1">
-        <v>2484785</v>
+        <v>1497253</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="3:4">
@@ -2592,7 +2592,7 @@
         <v>75</v>
       </c>
       <c r="D81" s="1">
-        <v>2597973</v>
+        <v>1570872</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="3:4">
@@ -2600,7 +2600,7 @@
         <v>76</v>
       </c>
       <c r="D82" s="1">
-        <v>2714708</v>
+        <v>1646696</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="3:4">
@@ -2608,7 +2608,7 @@
         <v>77</v>
       </c>
       <c r="D83" s="1">
-        <v>2835053</v>
+        <v>1724760</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="3:4">
@@ -2616,7 +2616,7 @@
         <v>78</v>
       </c>
       <c r="D84" s="1">
-        <v>2959069</v>
+        <v>1805100</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="3:4">
@@ -2624,7 +2624,7 @@
         <v>79</v>
       </c>
       <c r="D85" s="1">
-        <v>3086819</v>
+        <v>1887752</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="3:4">
@@ -2632,7 +2632,7 @@
         <v>80</v>
       </c>
       <c r="D86" s="1">
-        <v>3218366</v>
+        <v>1972751</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="3:4">
@@ -2640,7 +2640,7 @@
         <v>81</v>
       </c>
       <c r="D87" s="1">
-        <v>3353772</v>
+        <v>2060134</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="3:4">
@@ -2648,7 +2648,7 @@
         <v>82</v>
       </c>
       <c r="D88" s="1">
-        <v>3493101</v>
+        <v>2149936</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="3:4">
@@ -2656,7 +2656,7 @@
         <v>83</v>
       </c>
       <c r="D89" s="1">
-        <v>3636417</v>
+        <v>2242194</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="3:4">
@@ -2664,7 +2664,7 @@
         <v>84</v>
       </c>
       <c r="D90" s="1">
-        <v>3783783</v>
+        <v>2336944</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="3:4">
@@ -2672,7 +2672,7 @@
         <v>85</v>
       </c>
       <c r="D91" s="1">
-        <v>3935263</v>
+        <v>2434222</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="3:4">
@@ -2680,7 +2680,7 @@
         <v>86</v>
       </c>
       <c r="D92" s="1">
-        <v>4090921</v>
+        <v>2534064</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="3:4">
@@ -2688,7 +2688,7 @@
         <v>87</v>
       </c>
       <c r="D93" s="1">
-        <v>4250822</v>
+        <v>2636507</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="3:4">
@@ -2696,7 +2696,7 @@
         <v>88</v>
       </c>
       <c r="D94" s="1">
-        <v>4415030</v>
+        <v>2741588</v>
       </c>
     </row>
     <row r="95" customHeight="1" spans="3:4">
@@ -2704,7 +2704,7 @@
         <v>89</v>
       </c>
       <c r="D95" s="1">
-        <v>4583610</v>
+        <v>2849343</v>
       </c>
     </row>
     <row r="96" customHeight="1" spans="3:4">
@@ -2712,7 +2712,7 @@
         <v>90</v>
       </c>
       <c r="D96" s="1">
-        <v>4756627</v>
+        <v>2959809</v>
       </c>
     </row>
     <row r="97" customHeight="1" spans="3:4">
@@ -2720,7 +2720,7 @@
         <v>91</v>
       </c>
       <c r="D97" s="1">
-        <v>4934147</v>
+        <v>3073022</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="3:4">
@@ -2728,7 +2728,7 @@
         <v>92</v>
       </c>
       <c r="D98" s="1">
-        <v>5116235</v>
+        <v>3189020</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="3:4">
@@ -2736,7 +2736,7 @@
         <v>93</v>
       </c>
       <c r="D99" s="1">
-        <v>5302956</v>
+        <v>3307839</v>
       </c>
     </row>
     <row r="100" customHeight="1" spans="3:4">
@@ -2744,7 +2744,7 @@
         <v>94</v>
       </c>
       <c r="D100" s="1">
-        <v>5494377</v>
+        <v>3429517</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="3:4">
@@ -2752,7 +2752,7 @@
         <v>95</v>
       </c>
       <c r="D101" s="1">
-        <v>5690564</v>
+        <v>3554091</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="3:4">
@@ -2760,7 +2760,7 @@
         <v>96</v>
       </c>
       <c r="D102" s="1">
-        <v>5891583</v>
+        <v>3681597</v>
       </c>
     </row>
     <row r="103" customHeight="1" spans="3:4">
@@ -2768,7 +2768,7 @@
         <v>97</v>
       </c>
       <c r="D103" s="1">
-        <v>6097500</v>
+        <v>3812074</v>
       </c>
     </row>
     <row r="104" customHeight="1" spans="3:4">
@@ -2776,7 +2776,7 @@
         <v>98</v>
       </c>
       <c r="D104" s="1">
-        <v>6308383</v>
+        <v>3945558</v>
       </c>
     </row>
     <row r="105" customHeight="1" spans="3:4">
@@ -2784,7 +2784,7 @@
         <v>99</v>
       </c>
       <c r="D105" s="1">
-        <v>6524298</v>
+        <v>4082087</v>
       </c>
     </row>
     <row r="106" customHeight="1" spans="3:4">
@@ -2792,7 +2792,7 @@
         <v>100</v>
       </c>
       <c r="D106" s="1">
-        <v>6745313</v>
+        <v>4221698</v>
       </c>
     </row>
   </sheetData>

--- a/config/excel/PlayerLevelup.xlsx
+++ b/config/excel/PlayerLevelup.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>升到此级所需累计经验值</t>
+  </si>
+  <si>
+    <t>升级奖励id：体力值奖励</t>
   </si>
   <si>
     <t>导出字段名</t>
@@ -34,10 +37,16 @@
     <t>exp</t>
   </si>
   <si>
+    <t>lootId</t>
+  </si>
+  <si>
     <t>导出字段描述</t>
   </si>
   <si>
     <t>账号经验</t>
+  </si>
+  <si>
+    <t>升级奖励</t>
   </si>
   <si>
     <t>字段控制</t>
@@ -54,9 +63,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -77,13 +86,102 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -97,27 +195,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -126,61 +203,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,13 +218,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -211,15 +228,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,31 +255,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,37 +411,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,109 +429,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,17 +464,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,11 +508,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,31 +527,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,171 +547,176 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1907,19 +1917,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D106"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G106" sqref="G106"/>
+      <selection activeCell="E7" sqref="E7:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.35" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.35" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.3083333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="27.3083333333333" style="1" customWidth="1"/>
-    <col min="5" max="16382" width="6" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7666666666667" style="1" customWidth="1"/>
+    <col min="6" max="16382" width="6" style="1" customWidth="1"/>
     <col min="16383" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
@@ -1931,7 +1942,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" ht="14" customHeight="1" spans="1:4">
+    <row r="2" ht="14" customHeight="1" spans="1:5">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
@@ -1940,52 +1951,65 @@
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" ht="16.15" customHeight="1" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="16.15" customHeight="1" spans="1:5">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" ht="16.15" customHeight="1" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" ht="16.15" customHeight="1" spans="1:5">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" ht="16.15" customHeight="1" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="16.15" customHeight="1" spans="1:5">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-    </row>
-    <row r="6" ht="16.15" customHeight="1" spans="1:4">
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" ht="16.15" customHeight="1" spans="1:5">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" ht="25" customHeight="1" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:5">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="5">
@@ -1994,8 +2018,11 @@
       <c r="D7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" ht="25" customHeight="1" spans="1:4">
+      <c r="E7" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" ht="25" customHeight="1" spans="1:5">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="5">
@@ -2004,8 +2031,11 @@
       <c r="D8" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" ht="25" customHeight="1" spans="1:4">
+      <c r="E8" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" ht="25" customHeight="1" spans="1:5">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="5">
@@ -2014,8 +2044,11 @@
       <c r="D9" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" ht="25" customHeight="1" spans="1:4">
+      <c r="E9" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" ht="25" customHeight="1" spans="1:5">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="5">
@@ -2024,8 +2057,11 @@
       <c r="D10" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="11" ht="16.15" customHeight="1" spans="1:4">
+      <c r="E10" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" ht="16.15" customHeight="1" spans="1:5">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="5">
@@ -2034,765 +2070,1053 @@
       <c r="D11" s="1">
         <v>87</v>
       </c>
-    </row>
-    <row r="12" customHeight="1" spans="3:4">
+      <c r="E11" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="3:5">
       <c r="C12" s="5">
         <v>6</v>
       </c>
       <c r="D12" s="1">
         <v>137</v>
       </c>
-    </row>
-    <row r="13" customHeight="1" spans="3:4">
+      <c r="E12" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="3:5">
       <c r="C13" s="5">
         <v>7</v>
       </c>
       <c r="D13" s="1">
         <v>241</v>
       </c>
-    </row>
-    <row r="14" customHeight="1" spans="3:4">
+      <c r="E13" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="3:5">
       <c r="C14" s="5">
         <v>8</v>
       </c>
       <c r="D14" s="1">
         <v>381</v>
       </c>
-    </row>
-    <row r="15" customHeight="1" spans="3:4">
+      <c r="E14" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="3:5">
       <c r="C15" s="5">
         <v>9</v>
       </c>
       <c r="D15" s="1">
         <v>563</v>
       </c>
-    </row>
-    <row r="16" customHeight="1" spans="3:4">
+      <c r="E15" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="3:5">
       <c r="C16" s="5">
         <v>10</v>
       </c>
       <c r="D16" s="1">
         <v>794</v>
       </c>
-    </row>
-    <row r="17" customHeight="1" spans="3:4">
+      <c r="E16" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="3:5">
       <c r="C17" s="5">
         <v>11</v>
       </c>
       <c r="D17" s="1">
         <v>1081</v>
       </c>
-    </row>
-    <row r="18" customHeight="1" spans="3:4">
+      <c r="E17" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="3:5">
       <c r="C18" s="5">
         <v>12</v>
       </c>
       <c r="D18" s="1">
         <v>1547</v>
       </c>
-    </row>
-    <row r="19" customHeight="1" spans="3:4">
+      <c r="E18" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="3:5">
       <c r="C19" s="5">
         <v>13</v>
       </c>
       <c r="D19" s="1">
         <v>2107</v>
       </c>
-    </row>
-    <row r="20" customHeight="1" spans="3:4">
+      <c r="E19" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="3:5">
       <c r="C20" s="5">
         <v>14</v>
       </c>
       <c r="D20" s="1">
         <v>2771</v>
       </c>
-    </row>
-    <row r="21" customHeight="1" spans="3:4">
+      <c r="E20" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="3:5">
       <c r="C21" s="5">
         <v>15</v>
       </c>
       <c r="D21" s="1">
         <v>3548</v>
       </c>
-    </row>
-    <row r="22" customHeight="1" spans="3:4">
+      <c r="E21" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="3:5">
       <c r="C22" s="5">
         <v>16</v>
       </c>
       <c r="D22" s="1">
         <v>4449</v>
       </c>
-    </row>
-    <row r="23" customHeight="1" spans="3:4">
+      <c r="E22" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="3:5">
       <c r="C23" s="5">
         <v>17</v>
       </c>
       <c r="D23" s="1">
         <v>5484</v>
       </c>
-    </row>
-    <row r="24" customHeight="1" spans="3:4">
+      <c r="E23" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="3:5">
       <c r="C24" s="5">
         <v>18</v>
       </c>
       <c r="D24" s="1">
         <v>6663</v>
       </c>
-    </row>
-    <row r="25" customHeight="1" spans="3:4">
+      <c r="E24" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="3:5">
       <c r="C25" s="5">
         <v>19</v>
       </c>
       <c r="D25" s="1">
         <v>7997</v>
       </c>
-    </row>
-    <row r="26" customHeight="1" spans="3:4">
+      <c r="E25" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="3:5">
       <c r="C26" s="5">
         <v>20</v>
       </c>
       <c r="D26" s="1">
         <v>9497</v>
       </c>
-    </row>
-    <row r="27" customHeight="1" spans="3:4">
+      <c r="E26" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="3:5">
       <c r="C27" s="5">
         <v>21</v>
       </c>
       <c r="D27" s="1">
         <v>11174</v>
       </c>
-    </row>
-    <row r="28" customHeight="1" spans="3:4">
+      <c r="E27" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="3:5">
       <c r="C28" s="5">
         <v>22</v>
       </c>
       <c r="D28" s="1">
         <v>13038</v>
       </c>
-    </row>
-    <row r="29" customHeight="1" spans="3:4">
+      <c r="E28" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="3:5">
       <c r="C29" s="5">
         <v>23</v>
       </c>
       <c r="D29" s="1">
         <v>15101</v>
       </c>
-    </row>
-    <row r="30" customHeight="1" spans="3:4">
+      <c r="E29" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="3:5">
       <c r="C30" s="5">
         <v>24</v>
       </c>
       <c r="D30" s="1">
         <v>17373</v>
       </c>
-    </row>
-    <row r="31" customHeight="1" spans="3:4">
+      <c r="E30" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="3:5">
       <c r="C31" s="5">
         <v>25</v>
       </c>
       <c r="D31" s="1">
         <v>19866</v>
       </c>
-    </row>
-    <row r="32" customHeight="1" spans="3:4">
+      <c r="E31" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="3:5">
       <c r="C32" s="5">
         <v>26</v>
       </c>
       <c r="D32" s="1">
         <v>23273</v>
       </c>
-    </row>
-    <row r="33" customHeight="1" spans="3:4">
+      <c r="E32" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="3:5">
       <c r="C33" s="5">
         <v>27</v>
       </c>
       <c r="D33" s="1">
         <v>26984</v>
       </c>
-    </row>
-    <row r="34" customHeight="1" spans="3:4">
+      <c r="E33" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="3:5">
       <c r="C34" s="5">
         <v>28</v>
       </c>
       <c r="D34" s="1">
         <v>31014</v>
       </c>
-    </row>
-    <row r="35" customHeight="1" spans="3:4">
+      <c r="E34" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="3:5">
       <c r="C35" s="5">
         <v>29</v>
       </c>
       <c r="D35" s="1">
         <v>35378</v>
       </c>
-    </row>
-    <row r="36" customHeight="1" spans="3:4">
+      <c r="E35" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="3:5">
       <c r="C36" s="5">
         <v>30</v>
       </c>
       <c r="D36" s="1">
         <v>40090</v>
       </c>
-    </row>
-    <row r="37" customHeight="1" spans="3:4">
+      <c r="E36" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="3:5">
       <c r="C37" s="5">
         <v>31</v>
       </c>
       <c r="D37" s="1">
         <v>45164</v>
       </c>
-    </row>
-    <row r="38" customHeight="1" spans="3:4">
+      <c r="E37" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="3:5">
       <c r="C38" s="5">
         <v>32</v>
       </c>
       <c r="D38" s="1">
         <v>51706</v>
       </c>
-    </row>
-    <row r="39" customHeight="1" spans="3:4">
+      <c r="E38" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:5">
       <c r="C39" s="5">
         <v>33</v>
       </c>
       <c r="D39" s="1">
         <v>58719</v>
       </c>
-    </row>
-    <row r="40" customHeight="1" spans="3:4">
+      <c r="E39" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="3:5">
       <c r="C40" s="5">
         <v>34</v>
       </c>
       <c r="D40" s="1">
         <v>66221</v>
       </c>
-    </row>
-    <row r="41" customHeight="1" spans="3:4">
+      <c r="E40" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="3:5">
       <c r="C41" s="5">
         <v>35</v>
       </c>
       <c r="D41" s="1">
         <v>74230</v>
       </c>
-    </row>
-    <row r="42" customHeight="1" spans="3:4">
+      <c r="E41" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="3:5">
       <c r="C42" s="5">
         <v>36</v>
       </c>
       <c r="D42" s="1">
         <v>82764</v>
       </c>
-    </row>
-    <row r="43" customHeight="1" spans="3:4">
+      <c r="E42" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="3:5">
       <c r="C43" s="5">
         <v>37</v>
       </c>
       <c r="D43" s="1">
         <v>91842</v>
       </c>
-    </row>
-    <row r="44" customHeight="1" spans="3:4">
+      <c r="E43" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="3:5">
       <c r="C44" s="5">
         <v>38</v>
       </c>
       <c r="D44" s="1">
         <v>101482</v>
       </c>
-    </row>
-    <row r="45" customHeight="1" spans="3:4">
+      <c r="E44" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="3:5">
       <c r="C45" s="5">
         <v>39</v>
       </c>
       <c r="D45" s="1">
         <v>111702</v>
       </c>
-    </row>
-    <row r="46" customHeight="1" spans="3:4">
+      <c r="E45" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="3:5">
       <c r="C46" s="5">
         <v>40</v>
       </c>
       <c r="D46" s="1">
         <v>122521</v>
       </c>
-    </row>
-    <row r="47" customHeight="1" spans="3:4">
+      <c r="E46" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="3:5">
       <c r="C47" s="5">
         <v>41</v>
       </c>
       <c r="D47" s="1">
         <v>133958</v>
       </c>
-    </row>
-    <row r="48" customHeight="1" spans="3:4">
+      <c r="E47" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="3:5">
       <c r="C48" s="5">
         <v>42</v>
       </c>
       <c r="D48" s="1">
         <v>148044</v>
       </c>
-    </row>
-    <row r="49" customHeight="1" spans="3:4">
+      <c r="E48" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="3:5">
       <c r="C49" s="5">
         <v>43</v>
       </c>
       <c r="D49" s="1">
         <v>162895</v>
       </c>
-    </row>
-    <row r="50" customHeight="1" spans="3:4">
+      <c r="E49" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="3:5">
       <c r="C50" s="5">
         <v>44</v>
       </c>
       <c r="D50" s="1">
         <v>178533</v>
       </c>
-    </row>
-    <row r="51" customHeight="1" spans="3:4">
+      <c r="E50" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="3:5">
       <c r="C51" s="5">
         <v>45</v>
       </c>
       <c r="D51" s="1">
         <v>194980</v>
       </c>
-    </row>
-    <row r="52" customHeight="1" spans="3:4">
+      <c r="E51" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="3:5">
       <c r="C52" s="5">
         <v>46</v>
       </c>
       <c r="D52" s="1">
         <v>212258</v>
       </c>
-    </row>
-    <row r="53" customHeight="1" spans="3:4">
+      <c r="E52" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="3:5">
       <c r="C53" s="5">
         <v>47</v>
       </c>
       <c r="D53" s="1">
         <v>232981</v>
       </c>
-    </row>
-    <row r="54" customHeight="1" spans="3:4">
+      <c r="E53" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="3:5">
       <c r="C54" s="5">
         <v>48</v>
       </c>
       <c r="D54" s="1">
         <v>254706</v>
       </c>
-    </row>
-    <row r="55" customHeight="1" spans="3:4">
+      <c r="E54" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="3:5">
       <c r="C55" s="5">
         <v>49</v>
       </c>
       <c r="D55" s="1">
         <v>277458</v>
       </c>
-    </row>
-    <row r="56" customHeight="1" spans="3:4">
+      <c r="E55" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="3:5">
       <c r="C56" s="5">
         <v>50</v>
       </c>
       <c r="D56" s="1">
         <v>304240</v>
       </c>
-    </row>
-    <row r="57" customHeight="1" spans="3:4">
+      <c r="E56" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="3:5">
       <c r="C57" s="5">
         <v>51</v>
       </c>
       <c r="D57" s="1">
         <v>332237</v>
       </c>
-    </row>
-    <row r="58" customHeight="1" spans="3:4">
+      <c r="E57" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="3:5">
       <c r="C58" s="5">
         <v>52</v>
       </c>
       <c r="D58" s="1">
         <v>364727</v>
       </c>
-    </row>
-    <row r="59" customHeight="1" spans="3:4">
+      <c r="E58" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="3:5">
       <c r="C59" s="5">
         <v>53</v>
       </c>
       <c r="D59" s="1">
         <v>398633</v>
       </c>
-    </row>
-    <row r="60" customHeight="1" spans="3:4">
+      <c r="E59" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="3:5">
       <c r="C60" s="5">
         <v>54</v>
       </c>
       <c r="D60" s="1">
         <v>433988</v>
       </c>
-    </row>
-    <row r="61" customHeight="1" spans="3:4">
+      <c r="E60" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="3:5">
       <c r="C61" s="5">
         <v>55</v>
       </c>
       <c r="D61" s="1">
         <v>470825</v>
       </c>
-    </row>
-    <row r="62" customHeight="1" spans="3:4">
+      <c r="E61" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="3:5">
       <c r="C62" s="5">
         <v>56</v>
       </c>
       <c r="D62" s="1">
         <v>509177</v>
       </c>
-    </row>
-    <row r="63" customHeight="1" spans="3:4">
+      <c r="E62" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="3:5">
       <c r="C63" s="5">
         <v>57</v>
       </c>
       <c r="D63" s="1">
         <v>549077</v>
       </c>
-    </row>
-    <row r="64" customHeight="1" spans="3:4">
+      <c r="E63" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="3:5">
       <c r="C64" s="5">
         <v>58</v>
       </c>
       <c r="D64" s="1">
         <v>590559</v>
       </c>
-    </row>
-    <row r="65" customHeight="1" spans="3:4">
+      <c r="E64" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="3:5">
       <c r="C65" s="5">
         <v>59</v>
       </c>
       <c r="D65" s="1">
         <v>633657</v>
       </c>
-    </row>
-    <row r="66" customHeight="1" spans="3:4">
+      <c r="E65" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="3:5">
       <c r="C66" s="5">
         <v>60</v>
       </c>
       <c r="D66" s="1">
         <v>678405</v>
       </c>
-    </row>
-    <row r="67" customHeight="1" spans="3:4">
+      <c r="E66" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="3:5">
       <c r="C67" s="5">
         <v>61</v>
       </c>
       <c r="D67" s="1">
         <v>724836</v>
       </c>
-    </row>
-    <row r="68" customHeight="1" spans="3:4">
+      <c r="E67" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="3:5">
       <c r="C68" s="5">
         <v>62</v>
       </c>
       <c r="D68" s="1">
         <v>772984</v>
       </c>
-    </row>
-    <row r="69" customHeight="1" spans="3:4">
+      <c r="E68" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="3:5">
       <c r="C69" s="5">
         <v>63</v>
       </c>
       <c r="D69" s="1">
         <v>822884</v>
       </c>
-    </row>
-    <row r="70" customHeight="1" spans="3:4">
+      <c r="E69" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="3:5">
       <c r="C70" s="5">
         <v>64</v>
       </c>
       <c r="D70" s="1">
         <v>874570</v>
       </c>
-    </row>
-    <row r="71" customHeight="1" spans="3:4">
+      <c r="E70" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="3:5">
       <c r="C71" s="5">
         <v>65</v>
       </c>
       <c r="D71" s="1">
         <v>928076</v>
       </c>
-    </row>
-    <row r="72" customHeight="1" spans="3:4">
+      <c r="E71" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="3:5">
       <c r="C72" s="5">
         <v>66</v>
       </c>
       <c r="D72" s="1">
         <v>983436</v>
       </c>
-    </row>
-    <row r="73" customHeight="1" spans="3:4">
+      <c r="E72" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="3:5">
       <c r="C73" s="5">
         <v>67</v>
       </c>
       <c r="D73" s="1">
         <v>1040686</v>
       </c>
-    </row>
-    <row r="74" customHeight="1" spans="3:4">
+      <c r="E73" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="3:5">
       <c r="C74" s="5">
         <v>68</v>
       </c>
       <c r="D74" s="1">
         <v>1099859</v>
       </c>
-    </row>
-    <row r="75" customHeight="1" spans="3:4">
+      <c r="E74" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="3:5">
       <c r="C75" s="5">
         <v>69</v>
       </c>
       <c r="D75" s="1">
         <v>1160991</v>
       </c>
-    </row>
-    <row r="76" customHeight="1" spans="3:4">
+      <c r="E75" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="3:5">
       <c r="C76" s="5">
         <v>70</v>
       </c>
       <c r="D76" s="1">
         <v>1224116</v>
       </c>
-    </row>
-    <row r="77" customHeight="1" spans="3:4">
+      <c r="E76" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="3:5">
       <c r="C77" s="5">
         <v>71</v>
       </c>
       <c r="D77" s="1">
         <v>1289270</v>
       </c>
-    </row>
-    <row r="78" customHeight="1" spans="3:4">
+      <c r="E77" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="3:5">
       <c r="C78" s="5">
         <v>72</v>
       </c>
       <c r="D78" s="1">
         <v>1356487</v>
       </c>
-    </row>
-    <row r="79" customHeight="1" spans="3:4">
+      <c r="E78" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="3:5">
       <c r="C79" s="5">
         <v>73</v>
       </c>
       <c r="D79" s="1">
         <v>1425803</v>
       </c>
-    </row>
-    <row r="80" customHeight="1" spans="3:4">
+      <c r="E79" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="3:5">
       <c r="C80" s="5">
         <v>74</v>
       </c>
       <c r="D80" s="1">
         <v>1497253</v>
       </c>
-    </row>
-    <row r="81" customHeight="1" spans="3:4">
+      <c r="E80" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="3:5">
       <c r="C81" s="5">
         <v>75</v>
       </c>
       <c r="D81" s="1">
         <v>1570872</v>
       </c>
-    </row>
-    <row r="82" customHeight="1" spans="3:4">
+      <c r="E81" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="3:5">
       <c r="C82" s="5">
         <v>76</v>
       </c>
       <c r="D82" s="1">
         <v>1646696</v>
       </c>
-    </row>
-    <row r="83" customHeight="1" spans="3:4">
+      <c r="E82" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="3:5">
       <c r="C83" s="5">
         <v>77</v>
       </c>
       <c r="D83" s="1">
         <v>1724760</v>
       </c>
-    </row>
-    <row r="84" customHeight="1" spans="3:4">
+      <c r="E83" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="3:5">
       <c r="C84" s="5">
         <v>78</v>
       </c>
       <c r="D84" s="1">
         <v>1805100</v>
       </c>
-    </row>
-    <row r="85" customHeight="1" spans="3:4">
+      <c r="E84" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="3:5">
       <c r="C85" s="5">
         <v>79</v>
       </c>
       <c r="D85" s="1">
         <v>1887752</v>
       </c>
-    </row>
-    <row r="86" customHeight="1" spans="3:4">
+      <c r="E85" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="3:5">
       <c r="C86" s="5">
         <v>80</v>
       </c>
       <c r="D86" s="1">
         <v>1972751</v>
       </c>
-    </row>
-    <row r="87" customHeight="1" spans="3:4">
+      <c r="E86" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="3:5">
       <c r="C87" s="5">
         <v>81</v>
       </c>
       <c r="D87" s="1">
         <v>2060134</v>
       </c>
-    </row>
-    <row r="88" customHeight="1" spans="3:4">
+      <c r="E87" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="3:5">
       <c r="C88" s="5">
         <v>82</v>
       </c>
       <c r="D88" s="1">
         <v>2149936</v>
       </c>
-    </row>
-    <row r="89" customHeight="1" spans="3:4">
+      <c r="E88" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="3:5">
       <c r="C89" s="5">
         <v>83</v>
       </c>
       <c r="D89" s="1">
         <v>2242194</v>
       </c>
-    </row>
-    <row r="90" customHeight="1" spans="3:4">
+      <c r="E89" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="3:5">
       <c r="C90" s="5">
         <v>84</v>
       </c>
       <c r="D90" s="1">
         <v>2336944</v>
       </c>
-    </row>
-    <row r="91" customHeight="1" spans="3:4">
+      <c r="E90" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="3:5">
       <c r="C91" s="5">
         <v>85</v>
       </c>
       <c r="D91" s="1">
         <v>2434222</v>
       </c>
-    </row>
-    <row r="92" customHeight="1" spans="3:4">
+      <c r="E91" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="3:5">
       <c r="C92" s="5">
         <v>86</v>
       </c>
       <c r="D92" s="1">
         <v>2534064</v>
       </c>
-    </row>
-    <row r="93" customHeight="1" spans="3:4">
+      <c r="E92" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="3:5">
       <c r="C93" s="5">
         <v>87</v>
       </c>
       <c r="D93" s="1">
         <v>2636507</v>
       </c>
-    </row>
-    <row r="94" customHeight="1" spans="3:4">
+      <c r="E93" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="3:5">
       <c r="C94" s="5">
         <v>88</v>
       </c>
       <c r="D94" s="1">
         <v>2741588</v>
       </c>
-    </row>
-    <row r="95" customHeight="1" spans="3:4">
+      <c r="E94" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="3:5">
       <c r="C95" s="5">
         <v>89</v>
       </c>
       <c r="D95" s="1">
         <v>2849343</v>
       </c>
-    </row>
-    <row r="96" customHeight="1" spans="3:4">
+      <c r="E95" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="3:5">
       <c r="C96" s="5">
         <v>90</v>
       </c>
       <c r="D96" s="1">
         <v>2959809</v>
       </c>
-    </row>
-    <row r="97" customHeight="1" spans="3:4">
+      <c r="E96" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="3:5">
       <c r="C97" s="5">
         <v>91</v>
       </c>
       <c r="D97" s="1">
         <v>3073022</v>
       </c>
-    </row>
-    <row r="98" customHeight="1" spans="3:4">
+      <c r="E97" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="3:5">
       <c r="C98" s="5">
         <v>92</v>
       </c>
       <c r="D98" s="1">
         <v>3189020</v>
       </c>
-    </row>
-    <row r="99" customHeight="1" spans="3:4">
+      <c r="E98" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="3:5">
       <c r="C99" s="5">
         <v>93</v>
       </c>
       <c r="D99" s="1">
         <v>3307839</v>
       </c>
-    </row>
-    <row r="100" customHeight="1" spans="3:4">
+      <c r="E99" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="3:5">
       <c r="C100" s="5">
         <v>94</v>
       </c>
       <c r="D100" s="1">
         <v>3429517</v>
       </c>
-    </row>
-    <row r="101" customHeight="1" spans="3:4">
+      <c r="E100" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="3:5">
       <c r="C101" s="5">
         <v>95</v>
       </c>
       <c r="D101" s="1">
         <v>3554091</v>
       </c>
-    </row>
-    <row r="102" customHeight="1" spans="3:4">
+      <c r="E101" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="3:5">
       <c r="C102" s="5">
         <v>96</v>
       </c>
       <c r="D102" s="1">
         <v>3681597</v>
       </c>
-    </row>
-    <row r="103" customHeight="1" spans="3:4">
+      <c r="E102" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="3:5">
       <c r="C103" s="5">
         <v>97</v>
       </c>
       <c r="D103" s="1">
         <v>3812074</v>
       </c>
-    </row>
-    <row r="104" customHeight="1" spans="3:4">
+      <c r="E103" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" customHeight="1" spans="3:5">
       <c r="C104" s="5">
         <v>98</v>
       </c>
       <c r="D104" s="1">
         <v>3945558</v>
       </c>
-    </row>
-    <row r="105" customHeight="1" spans="3:4">
+      <c r="E104" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" spans="3:5">
       <c r="C105" s="5">
         <v>99</v>
       </c>
       <c r="D105" s="1">
         <v>4082087</v>
       </c>
-    </row>
-    <row r="106" customHeight="1" spans="3:4">
+      <c r="E105" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" spans="3:5">
       <c r="C106" s="5">
         <v>100</v>
       </c>
       <c r="D106" s="1">
         <v>4221698</v>
+      </c>
+      <c r="E106" s="6">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/config/excel/PlayerLevelup.xlsx
+++ b/config/excel/PlayerLevelup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerLevelup" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -22,7 +22,10 @@
     <t>账号等级</t>
   </si>
   <si>
-    <t>升到此级所需经验值</t>
+    <t>升到此级所需累计经验值</t>
+  </si>
+  <si>
+    <t>升级奖励id：体力值奖励</t>
   </si>
   <si>
     <t>导出字段名</t>
@@ -34,10 +37,16 @@
     <t>exp</t>
   </si>
   <si>
+    <t>lootId</t>
+  </si>
+  <si>
     <t>导出字段描述</t>
   </si>
   <si>
     <t>账号经验</t>
+  </si>
+  <si>
+    <t>升级奖励</t>
   </si>
   <si>
     <t>字段控制</t>
@@ -54,10 +63,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -77,56 +86,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,15 +106,82 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,39 +197,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,15 +218,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,19 +255,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,163 +399,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,6 +464,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -466,15 +504,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,6 +523,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -505,17 +543,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,179 +561,162 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1092,7 +1102,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1658,7 +1668,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1907,19 +1917,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D106"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="E7" sqref="E7:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.35" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.35" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.35" style="1" customWidth="1"/>
-    <col min="5" max="16382" width="6" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.3083333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.3083333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7666666666667" style="1" customWidth="1"/>
+    <col min="6" max="16382" width="6" style="1" customWidth="1"/>
     <col min="16383" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
@@ -1931,7 +1942,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" ht="14" customHeight="1" spans="1:4">
+    <row r="2" ht="14" customHeight="1" spans="1:5">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
@@ -1940,52 +1951,65 @@
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" ht="16.15" customHeight="1" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="16.15" customHeight="1" spans="1:5">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" ht="16.15" customHeight="1" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" ht="16.15" customHeight="1" spans="1:5">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" ht="16.15" customHeight="1" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="16.15" customHeight="1" spans="1:5">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-    </row>
-    <row r="6" ht="16.15" customHeight="1" spans="1:4">
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" ht="16.15" customHeight="1" spans="1:5">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" ht="25" customHeight="1" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:5">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="5">
@@ -1994,809 +2018,1109 @@
       <c r="D7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" ht="25" customHeight="1" spans="1:4">
+      <c r="E7" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" ht="25" customHeight="1" spans="1:5">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="5">
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="9" ht="25" customHeight="1" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E8" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" ht="25" customHeight="1" spans="1:5">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="5">
         <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="10" ht="25" customHeight="1" spans="1:4">
+        <v>28</v>
+      </c>
+      <c r="E9" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" ht="25" customHeight="1" spans="1:5">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="5">
         <v>4</v>
       </c>
       <c r="D10" s="1">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="11" ht="16.15" customHeight="1" spans="1:4">
+        <v>52</v>
+      </c>
+      <c r="E10" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" ht="16.15" customHeight="1" spans="1:5">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="5">
         <v>5</v>
       </c>
       <c r="D11" s="1">
-        <v>1945</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="3:4">
+        <v>87</v>
+      </c>
+      <c r="E11" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="3:5">
       <c r="C12" s="5">
         <v>6</v>
       </c>
       <c r="D12" s="1">
-        <v>2869</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="3:4">
+        <v>137</v>
+      </c>
+      <c r="E12" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="3:5">
       <c r="C13" s="5">
         <v>7</v>
       </c>
       <c r="D13" s="1">
-        <v>4068</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="3:4">
+        <v>241</v>
+      </c>
+      <c r="E13" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="3:5">
       <c r="C14" s="5">
         <v>8</v>
       </c>
       <c r="D14" s="1">
-        <v>5557</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="3:4">
+        <v>381</v>
+      </c>
+      <c r="E14" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="3:5">
       <c r="C15" s="5">
         <v>9</v>
       </c>
       <c r="D15" s="1">
-        <v>7351</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="3:4">
+        <v>563</v>
+      </c>
+      <c r="E15" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="3:5">
       <c r="C16" s="5">
         <v>10</v>
       </c>
       <c r="D16" s="1">
-        <v>9462</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="3:4">
+        <v>794</v>
+      </c>
+      <c r="E16" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="3:5">
       <c r="C17" s="5">
         <v>11</v>
       </c>
       <c r="D17" s="1">
-        <v>11901</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="3:4">
+        <v>1081</v>
+      </c>
+      <c r="E17" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="3:5">
       <c r="C18" s="5">
         <v>12</v>
       </c>
       <c r="D18" s="1">
-        <v>14678</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="3:4">
+        <v>1547</v>
+      </c>
+      <c r="E18" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="3:5">
       <c r="C19" s="5">
         <v>13</v>
       </c>
       <c r="D19" s="1">
-        <v>17805</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="3:4">
+        <v>2107</v>
+      </c>
+      <c r="E19" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="3:5">
       <c r="C20" s="5">
         <v>14</v>
       </c>
       <c r="D20" s="1">
-        <v>21289</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="3:4">
+        <v>2771</v>
+      </c>
+      <c r="E20" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="3:5">
       <c r="C21" s="5">
         <v>15</v>
       </c>
       <c r="D21" s="1">
-        <v>25140</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="3:4">
+        <v>3548</v>
+      </c>
+      <c r="E21" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="3:5">
       <c r="C22" s="5">
         <v>16</v>
       </c>
       <c r="D22" s="1">
-        <v>29365</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="3:4">
+        <v>4449</v>
+      </c>
+      <c r="E22" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="3:5">
       <c r="C23" s="5">
         <v>17</v>
       </c>
       <c r="D23" s="1">
-        <v>33973</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="3:4">
+        <v>5484</v>
+      </c>
+      <c r="E23" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="3:5">
       <c r="C24" s="5">
         <v>18</v>
       </c>
       <c r="D24" s="1">
-        <v>38972</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="3:4">
+        <v>6663</v>
+      </c>
+      <c r="E24" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="3:5">
       <c r="C25" s="5">
         <v>19</v>
       </c>
       <c r="D25" s="1">
-        <v>44368</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="3:4">
+        <v>7997</v>
+      </c>
+      <c r="E25" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="3:5">
       <c r="C26" s="5">
         <v>20</v>
       </c>
       <c r="D26" s="1">
-        <v>50167</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="3:4">
+        <v>9497</v>
+      </c>
+      <c r="E26" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="3:5">
       <c r="C27" s="5">
         <v>21</v>
       </c>
       <c r="D27" s="1">
-        <v>56378</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="3:4">
+        <v>11174</v>
+      </c>
+      <c r="E27" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="3:5">
       <c r="C28" s="5">
         <v>22</v>
       </c>
       <c r="D28" s="1">
-        <v>63006</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="3:4">
+        <v>13038</v>
+      </c>
+      <c r="E28" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="3:5">
       <c r="C29" s="5">
         <v>23</v>
       </c>
       <c r="D29" s="1">
-        <v>70057</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="3:4">
+        <v>15101</v>
+      </c>
+      <c r="E29" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="3:5">
       <c r="C30" s="5">
         <v>24</v>
       </c>
       <c r="D30" s="1">
-        <v>77538</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="3:4">
+        <v>17373</v>
+      </c>
+      <c r="E30" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="3:5">
       <c r="C31" s="5">
         <v>25</v>
       </c>
       <c r="D31" s="1">
-        <v>85453</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="3:4">
+        <v>19866</v>
+      </c>
+      <c r="E31" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="3:5">
       <c r="C32" s="5">
         <v>26</v>
       </c>
       <c r="D32" s="1">
-        <v>93809</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="3:4">
+        <v>23273</v>
+      </c>
+      <c r="E32" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="3:5">
       <c r="C33" s="5">
         <v>27</v>
       </c>
       <c r="D33" s="1">
-        <v>102611</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="3:4">
+        <v>26984</v>
+      </c>
+      <c r="E33" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="3:5">
       <c r="C34" s="5">
         <v>28</v>
       </c>
       <c r="D34" s="1">
-        <v>111865</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="3:4">
+        <v>31014</v>
+      </c>
+      <c r="E34" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="3:5">
       <c r="C35" s="5">
         <v>29</v>
       </c>
       <c r="D35" s="1">
-        <v>121575</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="3:4">
+        <v>35378</v>
+      </c>
+      <c r="E35" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="3:5">
       <c r="C36" s="5">
         <v>30</v>
       </c>
       <c r="D36" s="1">
-        <v>131746</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="3:4">
+        <v>40090</v>
+      </c>
+      <c r="E36" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="3:5">
       <c r="C37" s="5">
         <v>31</v>
       </c>
       <c r="D37" s="1">
-        <v>142384</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="3:4">
+        <v>45164</v>
+      </c>
+      <c r="E37" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="3:5">
       <c r="C38" s="5">
         <v>32</v>
       </c>
       <c r="D38" s="1">
-        <v>153493</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="3:4">
+        <v>51706</v>
+      </c>
+      <c r="E38" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:5">
       <c r="C39" s="5">
         <v>33</v>
       </c>
       <c r="D39" s="1">
-        <v>165078</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="3:4">
+        <v>58719</v>
+      </c>
+      <c r="E39" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="3:5">
       <c r="C40" s="5">
         <v>34</v>
       </c>
       <c r="D40" s="1">
-        <v>177143</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="3:4">
+        <v>66221</v>
+      </c>
+      <c r="E40" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="3:5">
       <c r="C41" s="5">
         <v>35</v>
       </c>
       <c r="D41" s="1">
-        <v>189693</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="3:4">
+        <v>74230</v>
+      </c>
+      <c r="E41" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="3:5">
       <c r="C42" s="5">
         <v>36</v>
       </c>
       <c r="D42" s="1">
-        <v>202732</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="3:4">
+        <v>82764</v>
+      </c>
+      <c r="E42" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="3:5">
       <c r="C43" s="5">
         <v>37</v>
       </c>
       <c r="D43" s="1">
-        <v>216264</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="3:4">
+        <v>91842</v>
+      </c>
+      <c r="E43" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="3:5">
       <c r="C44" s="5">
         <v>38</v>
       </c>
       <c r="D44" s="1">
-        <v>230295</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="3:4">
+        <v>101482</v>
+      </c>
+      <c r="E44" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="3:5">
       <c r="C45" s="5">
         <v>39</v>
       </c>
       <c r="D45" s="1">
-        <v>244827</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="3:4">
+        <v>111702</v>
+      </c>
+      <c r="E45" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="3:5">
       <c r="C46" s="5">
         <v>40</v>
       </c>
       <c r="D46" s="1">
-        <v>259864</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="3:4">
+        <v>122521</v>
+      </c>
+      <c r="E46" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="3:5">
       <c r="C47" s="5">
         <v>41</v>
       </c>
       <c r="D47" s="1">
-        <v>275412</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="3:4">
+        <v>133958</v>
+      </c>
+      <c r="E47" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="3:5">
       <c r="C48" s="5">
         <v>42</v>
       </c>
       <c r="D48" s="1">
-        <v>291473</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="3:4">
+        <v>148044</v>
+      </c>
+      <c r="E48" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="3:5">
       <c r="C49" s="5">
         <v>43</v>
       </c>
       <c r="D49" s="1">
-        <v>308051</v>
-      </c>
-    </row>
-    <row r="50" customHeight="1" spans="3:4">
+        <v>162895</v>
+      </c>
+      <c r="E49" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="3:5">
       <c r="C50" s="5">
         <v>44</v>
       </c>
       <c r="D50" s="1">
-        <v>325151</v>
-      </c>
-    </row>
-    <row r="51" customHeight="1" spans="3:4">
+        <v>178533</v>
+      </c>
+      <c r="E50" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="3:5">
       <c r="C51" s="5">
         <v>45</v>
       </c>
       <c r="D51" s="1">
-        <v>342775</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="3:4">
+        <v>194980</v>
+      </c>
+      <c r="E51" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="3:5">
       <c r="C52" s="5">
         <v>46</v>
       </c>
       <c r="D52" s="1">
-        <v>360928</v>
-      </c>
-    </row>
-    <row r="53" customHeight="1" spans="3:4">
+        <v>212258</v>
+      </c>
+      <c r="E52" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="3:5">
       <c r="C53" s="5">
         <v>47</v>
       </c>
       <c r="D53" s="1">
-        <v>379613</v>
-      </c>
-    </row>
-    <row r="54" customHeight="1" spans="3:4">
+        <v>232981</v>
+      </c>
+      <c r="E53" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="3:5">
       <c r="C54" s="5">
         <v>48</v>
       </c>
       <c r="D54" s="1">
-        <v>398834</v>
-      </c>
-    </row>
-    <row r="55" customHeight="1" spans="3:4">
+        <v>254706</v>
+      </c>
+      <c r="E54" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="3:5">
       <c r="C55" s="5">
         <v>49</v>
       </c>
       <c r="D55" s="1">
-        <v>418593</v>
-      </c>
-    </row>
-    <row r="56" customHeight="1" spans="3:4">
+        <v>277458</v>
+      </c>
+      <c r="E55" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="3:5">
       <c r="C56" s="5">
         <v>50</v>
       </c>
       <c r="D56" s="1">
-        <v>438896</v>
-      </c>
-    </row>
-    <row r="57" customHeight="1" spans="3:4">
+        <v>304240</v>
+      </c>
+      <c r="E56" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="3:5">
       <c r="C57" s="5">
         <v>51</v>
       </c>
       <c r="D57" s="1">
-        <v>459744</v>
-      </c>
-    </row>
-    <row r="58" customHeight="1" spans="3:4">
+        <v>332237</v>
+      </c>
+      <c r="E57" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="3:5">
       <c r="C58" s="5">
         <v>52</v>
       </c>
       <c r="D58" s="1">
-        <v>481141</v>
-      </c>
-    </row>
-    <row r="59" customHeight="1" spans="3:4">
+        <v>364727</v>
+      </c>
+      <c r="E58" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="3:5">
       <c r="C59" s="5">
         <v>53</v>
       </c>
       <c r="D59" s="1">
-        <v>503091</v>
-      </c>
-    </row>
-    <row r="60" customHeight="1" spans="3:4">
+        <v>398633</v>
+      </c>
+      <c r="E59" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="3:5">
       <c r="C60" s="5">
         <v>54</v>
       </c>
       <c r="D60" s="1">
-        <v>525596</v>
-      </c>
-    </row>
-    <row r="61" customHeight="1" spans="3:4">
+        <v>433988</v>
+      </c>
+      <c r="E60" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="3:5">
       <c r="C61" s="5">
         <v>55</v>
       </c>
       <c r="D61" s="1">
-        <v>548660</v>
-      </c>
-    </row>
-    <row r="62" customHeight="1" spans="3:4">
+        <v>470825</v>
+      </c>
+      <c r="E61" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="3:5">
       <c r="C62" s="5">
         <v>56</v>
       </c>
       <c r="D62" s="1">
-        <v>572286</v>
-      </c>
-    </row>
-    <row r="63" customHeight="1" spans="3:4">
+        <v>509177</v>
+      </c>
+      <c r="E62" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="3:5">
       <c r="C63" s="5">
         <v>57</v>
       </c>
       <c r="D63" s="1">
-        <v>596478</v>
-      </c>
-    </row>
-    <row r="64" customHeight="1" spans="3:4">
+        <v>549077</v>
+      </c>
+      <c r="E63" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="3:5">
       <c r="C64" s="5">
         <v>58</v>
       </c>
       <c r="D64" s="1">
-        <v>621237</v>
-      </c>
-    </row>
-    <row r="65" customHeight="1" spans="3:4">
+        <v>590559</v>
+      </c>
+      <c r="E64" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="3:5">
       <c r="C65" s="5">
         <v>59</v>
       </c>
       <c r="D65" s="1">
-        <v>646568</v>
-      </c>
-    </row>
-    <row r="66" customHeight="1" spans="3:4">
+        <v>633657</v>
+      </c>
+      <c r="E65" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="3:5">
       <c r="C66" s="5">
         <v>60</v>
       </c>
       <c r="D66" s="1">
-        <v>672473</v>
-      </c>
-    </row>
-    <row r="67" customHeight="1" spans="3:4">
+        <v>678405</v>
+      </c>
+      <c r="E66" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="3:5">
       <c r="C67" s="5">
         <v>61</v>
       </c>
       <c r="D67" s="1">
-        <v>698955</v>
-      </c>
-    </row>
-    <row r="68" customHeight="1" spans="3:4">
+        <v>724836</v>
+      </c>
+      <c r="E67" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="3:5">
       <c r="C68" s="5">
         <v>62</v>
       </c>
       <c r="D68" s="1">
-        <v>726017</v>
-      </c>
-    </row>
-    <row r="69" customHeight="1" spans="3:4">
+        <v>772984</v>
+      </c>
+      <c r="E68" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="3:5">
       <c r="C69" s="5">
         <v>63</v>
       </c>
       <c r="D69" s="1">
-        <v>753662</v>
-      </c>
-    </row>
-    <row r="70" customHeight="1" spans="3:4">
+        <v>822884</v>
+      </c>
+      <c r="E69" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="3:5">
       <c r="C70" s="5">
         <v>64</v>
       </c>
       <c r="D70" s="1">
-        <v>781892</v>
-      </c>
-    </row>
-    <row r="71" customHeight="1" spans="3:4">
+        <v>874570</v>
+      </c>
+      <c r="E70" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="3:5">
       <c r="C71" s="5">
         <v>65</v>
       </c>
       <c r="D71" s="1">
-        <v>810712</v>
-      </c>
-    </row>
-    <row r="72" customHeight="1" spans="3:4">
+        <v>928076</v>
+      </c>
+      <c r="E71" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="3:5">
       <c r="C72" s="5">
         <v>66</v>
       </c>
       <c r="D72" s="1">
-        <v>840122</v>
-      </c>
-    </row>
-    <row r="73" customHeight="1" spans="3:4">
+        <v>983436</v>
+      </c>
+      <c r="E72" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="3:5">
       <c r="C73" s="5">
         <v>67</v>
       </c>
       <c r="D73" s="1">
-        <v>870127</v>
-      </c>
-    </row>
-    <row r="74" customHeight="1" spans="3:4">
+        <v>1040686</v>
+      </c>
+      <c r="E73" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="3:5">
       <c r="C74" s="5">
         <v>68</v>
       </c>
       <c r="D74" s="1">
-        <v>900729</v>
-      </c>
-    </row>
-    <row r="75" customHeight="1" spans="3:4">
+        <v>1099859</v>
+      </c>
+      <c r="E74" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="3:5">
       <c r="C75" s="5">
         <v>69</v>
       </c>
       <c r="D75" s="1">
-        <v>931930</v>
-      </c>
-    </row>
-    <row r="76" customHeight="1" spans="3:4">
+        <v>1160991</v>
+      </c>
+      <c r="E75" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="3:5">
       <c r="C76" s="5">
         <v>70</v>
       </c>
       <c r="D76" s="1">
-        <v>963734</v>
-      </c>
-    </row>
-    <row r="77" customHeight="1" spans="3:4">
+        <v>1224116</v>
+      </c>
+      <c r="E76" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="3:5">
       <c r="C77" s="5">
         <v>71</v>
       </c>
       <c r="D77" s="1">
-        <v>996142</v>
-      </c>
-    </row>
-    <row r="78" customHeight="1" spans="3:4">
+        <v>1289270</v>
+      </c>
+      <c r="E77" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="3:5">
       <c r="C78" s="5">
         <v>72</v>
       </c>
       <c r="D78" s="1">
-        <v>1029158</v>
-      </c>
-    </row>
-    <row r="79" customHeight="1" spans="3:4">
+        <v>1356487</v>
+      </c>
+      <c r="E78" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="3:5">
       <c r="C79" s="5">
         <v>73</v>
       </c>
       <c r="D79" s="1">
-        <v>1062784</v>
-      </c>
-    </row>
-    <row r="80" customHeight="1" spans="3:4">
+        <v>1425803</v>
+      </c>
+      <c r="E79" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="3:5">
       <c r="C80" s="5">
         <v>74</v>
       </c>
       <c r="D80" s="1">
-        <v>1097023</v>
-      </c>
-    </row>
-    <row r="81" customHeight="1" spans="3:4">
+        <v>1497253</v>
+      </c>
+      <c r="E80" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="3:5">
       <c r="C81" s="5">
         <v>75</v>
       </c>
       <c r="D81" s="1">
-        <v>1131877</v>
-      </c>
-    </row>
-    <row r="82" customHeight="1" spans="3:4">
+        <v>1570872</v>
+      </c>
+      <c r="E81" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="3:5">
       <c r="C82" s="5">
         <v>76</v>
       </c>
       <c r="D82" s="1">
-        <v>1167348</v>
-      </c>
-    </row>
-    <row r="83" customHeight="1" spans="3:4">
+        <v>1646696</v>
+      </c>
+      <c r="E82" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="3:5">
       <c r="C83" s="5">
         <v>77</v>
       </c>
       <c r="D83" s="1">
-        <v>1203440</v>
-      </c>
-    </row>
-    <row r="84" customHeight="1" spans="3:4">
+        <v>1724760</v>
+      </c>
+      <c r="E83" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="3:5">
       <c r="C84" s="5">
         <v>78</v>
       </c>
       <c r="D84" s="1">
-        <v>1240154</v>
-      </c>
-    </row>
-    <row r="85" customHeight="1" spans="3:4">
+        <v>1805100</v>
+      </c>
+      <c r="E84" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="3:5">
       <c r="C85" s="5">
         <v>79</v>
       </c>
       <c r="D85" s="1">
-        <v>1277494</v>
-      </c>
-    </row>
-    <row r="86" customHeight="1" spans="3:4">
+        <v>1887752</v>
+      </c>
+      <c r="E85" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="3:5">
       <c r="C86" s="5">
         <v>80</v>
       </c>
       <c r="D86" s="1">
-        <v>1315461</v>
-      </c>
-    </row>
-    <row r="87" customHeight="1" spans="3:4">
+        <v>1972751</v>
+      </c>
+      <c r="E86" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="3:5">
       <c r="C87" s="5">
         <v>81</v>
       </c>
       <c r="D87" s="1">
-        <v>1354058</v>
-      </c>
-    </row>
-    <row r="88" customHeight="1" spans="3:4">
+        <v>2060134</v>
+      </c>
+      <c r="E87" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="3:5">
       <c r="C88" s="5">
         <v>82</v>
       </c>
       <c r="D88" s="1">
-        <v>1393288</v>
-      </c>
-    </row>
-    <row r="89" customHeight="1" spans="3:4">
+        <v>2149936</v>
+      </c>
+      <c r="E88" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="3:5">
       <c r="C89" s="5">
         <v>83</v>
       </c>
       <c r="D89" s="1">
-        <v>1433152</v>
-      </c>
-    </row>
-    <row r="90" customHeight="1" spans="3:4">
+        <v>2242194</v>
+      </c>
+      <c r="E89" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="3:5">
       <c r="C90" s="5">
         <v>84</v>
       </c>
       <c r="D90" s="1">
-        <v>1473653</v>
-      </c>
-    </row>
-    <row r="91" customHeight="1" spans="3:4">
+        <v>2336944</v>
+      </c>
+      <c r="E90" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="3:5">
       <c r="C91" s="5">
         <v>85</v>
       </c>
       <c r="D91" s="1">
-        <v>1514793</v>
-      </c>
-    </row>
-    <row r="92" customHeight="1" spans="3:4">
+        <v>2434222</v>
+      </c>
+      <c r="E91" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="3:5">
       <c r="C92" s="5">
         <v>86</v>
       </c>
       <c r="D92" s="1">
-        <v>1556576</v>
-      </c>
-    </row>
-    <row r="93" customHeight="1" spans="3:4">
+        <v>2534064</v>
+      </c>
+      <c r="E92" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="3:5">
       <c r="C93" s="5">
         <v>87</v>
       </c>
       <c r="D93" s="1">
-        <v>1599002</v>
-      </c>
-    </row>
-    <row r="94" customHeight="1" spans="3:4">
+        <v>2636507</v>
+      </c>
+      <c r="E93" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="3:5">
       <c r="C94" s="5">
         <v>88</v>
       </c>
       <c r="D94" s="1">
-        <v>1642074</v>
-      </c>
-    </row>
-    <row r="95" customHeight="1" spans="3:4">
+        <v>2741588</v>
+      </c>
+      <c r="E94" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="3:5">
       <c r="C95" s="5">
         <v>89</v>
       </c>
       <c r="D95" s="1">
-        <v>1685795</v>
-      </c>
-    </row>
-    <row r="96" customHeight="1" spans="3:4">
+        <v>2849343</v>
+      </c>
+      <c r="E95" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="3:5">
       <c r="C96" s="5">
         <v>90</v>
       </c>
       <c r="D96" s="1">
-        <v>1730166</v>
-      </c>
-    </row>
-    <row r="97" customHeight="1" spans="3:4">
+        <v>2959809</v>
+      </c>
+      <c r="E96" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="3:5">
       <c r="C97" s="5">
         <v>91</v>
       </c>
       <c r="D97" s="1">
-        <v>1775191</v>
-      </c>
-    </row>
-    <row r="98" customHeight="1" spans="3:4">
+        <v>3073022</v>
+      </c>
+      <c r="E97" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="3:5">
       <c r="C98" s="5">
         <v>92</v>
       </c>
       <c r="D98" s="1">
-        <v>1820870</v>
-      </c>
-    </row>
-    <row r="99" customHeight="1" spans="3:4">
+        <v>3189020</v>
+      </c>
+      <c r="E98" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="3:5">
       <c r="C99" s="5">
         <v>93</v>
       </c>
       <c r="D99" s="1">
-        <v>1867207</v>
-      </c>
-    </row>
-    <row r="100" customHeight="1" spans="3:4">
+        <v>3307839</v>
+      </c>
+      <c r="E99" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="3:5">
       <c r="C100" s="5">
         <v>94</v>
       </c>
       <c r="D100" s="1">
-        <v>1914203</v>
-      </c>
-    </row>
-    <row r="101" customHeight="1" spans="3:4">
+        <v>3429517</v>
+      </c>
+      <c r="E100" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="3:5">
       <c r="C101" s="5">
         <v>95</v>
       </c>
       <c r="D101" s="1">
-        <v>1961860</v>
-      </c>
-    </row>
-    <row r="102" customHeight="1" spans="3:4">
+        <v>3554091</v>
+      </c>
+      <c r="E101" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="3:5">
       <c r="C102" s="5">
         <v>96</v>
       </c>
       <c r="D102" s="1">
-        <v>2010181</v>
-      </c>
-    </row>
-    <row r="103" customHeight="1" spans="3:4">
+        <v>3681597</v>
+      </c>
+      <c r="E102" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="3:5">
       <c r="C103" s="5">
         <v>97</v>
       </c>
       <c r="D103" s="1">
-        <v>2059168</v>
-      </c>
-    </row>
-    <row r="104" customHeight="1" spans="3:4">
+        <v>3812074</v>
+      </c>
+      <c r="E103" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" customHeight="1" spans="3:5">
       <c r="C104" s="5">
         <v>98</v>
       </c>
       <c r="D104" s="1">
-        <v>2108823</v>
-      </c>
-    </row>
-    <row r="105" customHeight="1" spans="3:4">
+        <v>3945558</v>
+      </c>
+      <c r="E104" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" spans="3:5">
       <c r="C105" s="5">
         <v>99</v>
       </c>
       <c r="D105" s="1">
-        <v>2159148</v>
-      </c>
-    </row>
-    <row r="106" customHeight="1" spans="3:4">
+        <v>4082087</v>
+      </c>
+      <c r="E105" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" spans="3:5">
       <c r="C106" s="5">
         <v>100</v>
       </c>
       <c r="D106" s="1">
-        <v>2210145</v>
+        <v>4221698</v>
+      </c>
+      <c r="E106" s="6">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
